--- a/arguments_summary.xlsx
+++ b/arguments_summary.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am21907\Documents\Projects\Hackathon Projects\RwD\neural-hawkes-particle-smoothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3A1507-F0AB-4BF3-A6B8-2D2096572049}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A3710A-987B-4544-9ABF-95458486CE55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2ABF51B6-701F-4791-8275-7D53CC98B19D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2ABF51B6-701F-4791-8275-7D53CC98B19D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arguments" sheetId="1" r:id="rId1"/>
-    <sheet name="Dataset" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Dataset" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t>train_nhpf</t>
   </si>
@@ -322,6 +324,18 @@
   </si>
   <si>
     <t>Need further clarification</t>
+  </si>
+  <si>
+    <t>idx_event</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>time_since_start</t>
+  </si>
+  <si>
+    <t>time_since_last_event</t>
   </si>
 </sst>
 </file>
@@ -365,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -562,11 +576,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +685,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CB5E3-A869-44D8-B019-73515C5D59F1}">
   <dimension ref="C2:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1484,6 +1549,321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EA1AC2-8E2A-4CE1-BD19-6C1917EEAE55}">
+  <dimension ref="D3:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="24">
+        <v>5</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="12">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="24">
+        <v>5</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2.02</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="12">
+        <v>6</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3.02</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="24">
+        <v>5</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2</v>
+      </c>
+      <c r="F26" s="25">
+        <v>2</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="12">
+        <v>6</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E1C6E9-52C7-4E5E-8085-AD2B6FB583AB}">
   <dimension ref="B3:F19"/>
   <sheetViews>
@@ -1527,10 +1907,10 @@
       <c r="C9" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="20" t="s">
         <v>85</v>
       </c>
